--- a/quwei/WebContent/resources/templates/学生信息上传模板.xlsx
+++ b/quwei/WebContent/resources/templates/学生信息上传模板.xlsx
@@ -89,11 +89,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -437,24 +437,24 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="19.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="3" width="19.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
